--- a/간트차트.xlsx
+++ b/간트차트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohjc0\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohcj0\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B2FC68-C2AD-4B58-A221-F07C19EC5527}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0963513A-4D33-457E-8192-CC0FA1CCBE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A6F4FB2-423B-4008-9F19-EF0166AD907A}"/>
+    <workbookView xWindow="17910" yWindow="45" windowWidth="20580" windowHeight="15345" xr2:uid="{9A6F4FB2-423B-4008-9F19-EF0166AD907A}"/>
   </bookViews>
   <sheets>
     <sheet name="2025년 연간계획 타임라인" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -294,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +345,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -899,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,6 +1069,57 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1062,68 +1129,53 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1469,139 +1521,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF93E6C-EEF5-48CF-83AD-BC0DE889736D}">
   <dimension ref="A1:BO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.09765625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.09765625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.09765625" style="1" customWidth="1"/>
-    <col min="20" max="23" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.09765625" style="1" customWidth="1"/>
-    <col min="27" max="31" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="4.09765625" style="1" customWidth="1"/>
-    <col min="35" max="37" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="4.09765625" style="1" customWidth="1"/>
-    <col min="41" max="44" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="4.09765625" style="1" customWidth="1"/>
-    <col min="48" max="52" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="4.09765625" style="1" customWidth="1"/>
-    <col min="56" max="58" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="4.09765625" style="1" customWidth="1"/>
-    <col min="62" max="64" width="4.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.125" style="1" customWidth="1"/>
+    <col min="20" max="23" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.125" style="1" customWidth="1"/>
+    <col min="27" max="31" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="4.125" style="1" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="1" customWidth="1"/>
+    <col min="41" max="44" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="4.125" style="1" customWidth="1"/>
+    <col min="48" max="52" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="4.125" style="1" customWidth="1"/>
+    <col min="56" max="58" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="4.125" style="1" customWidth="1"/>
+    <col min="62" max="64" width="4.125" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="57" t="s">
+    <row r="2" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="54" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="54" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="54" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="54" t="s">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="54" t="s">
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="54" t="s">
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="55"/>
-      <c r="BD3" s="55"/>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="54" t="s">
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="BG3" s="55"/>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="55"/>
-      <c r="BJ3" s="55"/>
-      <c r="BK3" s="55"/>
-      <c r="BL3" s="56"/>
+      <c r="BG3" s="64"/>
+      <c r="BH3" s="64"/>
+      <c r="BI3" s="64"/>
+      <c r="BJ3" s="64"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="65"/>
     </row>
-    <row r="4" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
+    <row r="4" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="40" t="s">
         <v>4</v>
       </c>
@@ -1789,8 +1841,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1814,28 +1866,28 @@
         <f t="shared" ref="H5:H25" si="0">IF(ISBLANK(G5),"",G5-F5)</f>
         <v/>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="72"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="6"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="76"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
@@ -1843,16 +1895,16 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="6"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
       <c r="AV5" s="7"/>
       <c r="AW5" s="7"/>
       <c r="AX5" s="8"/>
@@ -1864,15 +1916,15 @@
       <c r="BD5" s="7"/>
       <c r="BE5" s="8"/>
       <c r="BF5" s="6"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
       <c r="BJ5" s="7"/>
       <c r="BK5" s="7"/>
       <c r="BL5" s="8"/>
     </row>
-    <row r="6" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="52"/>
+    <row r="6" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69"/>
       <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
@@ -1896,24 +1948,24 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="73"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="70"/>
+      <c r="P6" s="61"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="14"/>
@@ -1925,16 +1977,16 @@
       <c r="AI6" s="13"/>
       <c r="AJ6" s="14"/>
       <c r="AK6" s="12"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="52"/>
       <c r="AO6" s="13"/>
       <c r="AP6" s="13"/>
       <c r="AQ6" s="14"/>
       <c r="AR6" s="12"/>
-      <c r="AS6" s="60"/>
-      <c r="AT6" s="60"/>
-      <c r="AU6" s="60"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="52"/>
       <c r="AV6" s="13"/>
       <c r="AW6" s="13"/>
       <c r="AX6" s="14"/>
@@ -1946,19 +1998,19 @@
       <c r="BD6" s="13"/>
       <c r="BE6" s="14"/>
       <c r="BF6" s="12"/>
-      <c r="BG6" s="60"/>
-      <c r="BH6" s="60"/>
-      <c r="BI6" s="60"/>
+      <c r="BG6" s="52"/>
+      <c r="BH6" s="52"/>
+      <c r="BI6" s="52"/>
       <c r="BJ6" s="13"/>
       <c r="BK6" s="13"/>
       <c r="BL6" s="14"/>
-      <c r="BN6" s="66"/>
+      <c r="BN6" s="58"/>
       <c r="BO6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="53"/>
+    <row r="7" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="70"/>
       <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
@@ -1982,24 +2034,24 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="20"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="18"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
       <c r="AC7" s="20"/>
@@ -2011,16 +2063,16 @@
       <c r="AI7" s="19"/>
       <c r="AJ7" s="20"/>
       <c r="AK7" s="18"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
       <c r="AO7" s="19"/>
       <c r="AP7" s="19"/>
       <c r="AQ7" s="20"/>
       <c r="AR7" s="18"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
       <c r="AV7" s="19"/>
       <c r="AW7" s="19"/>
       <c r="AX7" s="20"/>
@@ -2032,19 +2084,19 @@
       <c r="BD7" s="19"/>
       <c r="BE7" s="20"/>
       <c r="BF7" s="18"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
+      <c r="BG7" s="53"/>
+      <c r="BH7" s="53"/>
+      <c r="BI7" s="53"/>
       <c r="BJ7" s="19"/>
       <c r="BK7" s="19"/>
       <c r="BL7" s="20"/>
-      <c r="BN7" s="67"/>
+      <c r="BN7" s="59"/>
       <c r="BO7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2074,16 +2126,16 @@
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="8"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="8"/>
@@ -2095,16 +2147,16 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="6"/>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="6"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="59"/>
-      <c r="AU8" s="59"/>
+      <c r="AS8" s="51"/>
+      <c r="AT8" s="51"/>
+      <c r="AU8" s="51"/>
       <c r="AV8" s="7"/>
       <c r="AW8" s="7"/>
       <c r="AX8" s="8"/>
@@ -2116,19 +2168,19 @@
       <c r="BD8" s="7"/>
       <c r="BE8" s="8"/>
       <c r="BF8" s="6"/>
-      <c r="BG8" s="59"/>
-      <c r="BH8" s="59"/>
-      <c r="BI8" s="59"/>
+      <c r="BG8" s="51"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
       <c r="BJ8" s="7"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="8"/>
-      <c r="BN8" s="68"/>
+      <c r="BN8" s="60"/>
       <c r="BO8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="52"/>
+    <row r="9" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="69"/>
       <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
@@ -2156,16 +2208,16 @@
       <c r="N9" s="23"/>
       <c r="O9" s="24"/>
       <c r="P9" s="22"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
       <c r="V9" s="24"/>
       <c r="W9" s="22"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
       <c r="AA9" s="23"/>
       <c r="AB9" s="23"/>
       <c r="AC9" s="24"/>
@@ -2177,16 +2229,16 @@
       <c r="AI9" s="23"/>
       <c r="AJ9" s="24"/>
       <c r="AK9" s="22"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
       <c r="AO9" s="23"/>
       <c r="AP9" s="23"/>
       <c r="AQ9" s="24"/>
       <c r="AR9" s="22"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
       <c r="AV9" s="23"/>
       <c r="AW9" s="23"/>
       <c r="AX9" s="24"/>
@@ -2198,15 +2250,15 @@
       <c r="BD9" s="23"/>
       <c r="BE9" s="24"/>
       <c r="BF9" s="22"/>
-      <c r="BG9" s="62"/>
-      <c r="BH9" s="62"/>
-      <c r="BI9" s="62"/>
+      <c r="BG9" s="54"/>
+      <c r="BH9" s="54"/>
+      <c r="BI9" s="54"/>
       <c r="BJ9" s="23"/>
       <c r="BK9" s="23"/>
       <c r="BL9" s="24"/>
     </row>
-    <row r="10" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="53"/>
+    <row r="10" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="70"/>
       <c r="B10" s="15" t="s">
         <v>29</v>
       </c>
@@ -2234,16 +2286,16 @@
       <c r="N10" s="13"/>
       <c r="O10" s="14"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="14"/>
       <c r="W10" s="12"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="14"/>
@@ -2255,16 +2307,16 @@
       <c r="AI10" s="13"/>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="12"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="52"/>
       <c r="AO10" s="13"/>
       <c r="AP10" s="13"/>
       <c r="AQ10" s="14"/>
       <c r="AR10" s="12"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="60"/>
-      <c r="AU10" s="60"/>
+      <c r="AS10" s="52"/>
+      <c r="AT10" s="52"/>
+      <c r="AU10" s="52"/>
       <c r="AV10" s="13"/>
       <c r="AW10" s="13"/>
       <c r="AX10" s="14"/>
@@ -2276,15 +2328,15 @@
       <c r="BD10" s="13"/>
       <c r="BE10" s="14"/>
       <c r="BF10" s="12"/>
-      <c r="BG10" s="60"/>
-      <c r="BH10" s="60"/>
-      <c r="BI10" s="60"/>
+      <c r="BG10" s="52"/>
+      <c r="BH10" s="52"/>
+      <c r="BI10" s="52"/>
       <c r="BJ10" s="13"/>
       <c r="BK10" s="13"/>
       <c r="BL10" s="14"/>
     </row>
-    <row r="11" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="51" t="s">
+    <row r="11" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2316,16 +2368,16 @@
       <c r="N11" s="7"/>
       <c r="O11" s="8"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="8"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="8"/>
@@ -2337,16 +2389,16 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="59"/>
-      <c r="AM11" s="59"/>
-      <c r="AN11" s="59"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="51"/>
+      <c r="AN11" s="51"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="6"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="59"/>
-      <c r="AU11" s="59"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="51"/>
       <c r="AV11" s="7"/>
       <c r="AW11" s="7"/>
       <c r="AX11" s="8"/>
@@ -2358,15 +2410,15 @@
       <c r="BD11" s="7"/>
       <c r="BE11" s="8"/>
       <c r="BF11" s="6"/>
-      <c r="BG11" s="59"/>
-      <c r="BH11" s="59"/>
-      <c r="BI11" s="59"/>
+      <c r="BG11" s="51"/>
+      <c r="BH11" s="51"/>
+      <c r="BI11" s="51"/>
       <c r="BJ11" s="7"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="8"/>
     </row>
-    <row r="12" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="52"/>
+    <row r="12" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
@@ -2396,16 +2448,16 @@
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="14"/>
       <c r="W12" s="12"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
       <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
       <c r="AC12" s="14"/>
@@ -2417,16 +2469,16 @@
       <c r="AI12" s="13"/>
       <c r="AJ12" s="14"/>
       <c r="AK12" s="12"/>
-      <c r="AL12" s="60"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
+      <c r="AL12" s="52"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="52"/>
       <c r="AO12" s="13"/>
       <c r="AP12" s="13"/>
       <c r="AQ12" s="14"/>
       <c r="AR12" s="12"/>
-      <c r="AS12" s="60"/>
-      <c r="AT12" s="60"/>
-      <c r="AU12" s="60"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="52"/>
+      <c r="AU12" s="52"/>
       <c r="AV12" s="13"/>
       <c r="AW12" s="13"/>
       <c r="AX12" s="14"/>
@@ -2438,15 +2490,15 @@
       <c r="BD12" s="13"/>
       <c r="BE12" s="14"/>
       <c r="BF12" s="12"/>
-      <c r="BG12" s="60"/>
-      <c r="BH12" s="60"/>
-      <c r="BI12" s="60"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="52"/>
+      <c r="BI12" s="52"/>
       <c r="BJ12" s="13"/>
       <c r="BK12" s="13"/>
       <c r="BL12" s="14"/>
     </row>
-    <row r="13" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="53"/>
+    <row r="13" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="70"/>
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
@@ -2476,16 +2528,16 @@
       <c r="N13" s="19"/>
       <c r="O13" s="20"/>
       <c r="P13" s="18"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
       <c r="V13" s="20"/>
       <c r="W13" s="18"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="19"/>
       <c r="AC13" s="20"/>
@@ -2497,16 +2549,16 @@
       <c r="AI13" s="19"/>
       <c r="AJ13" s="20"/>
       <c r="AK13" s="18"/>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="61"/>
-      <c r="AN13" s="61"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
       <c r="AO13" s="19"/>
       <c r="AP13" s="19"/>
       <c r="AQ13" s="20"/>
       <c r="AR13" s="18"/>
-      <c r="AS13" s="61"/>
-      <c r="AT13" s="61"/>
-      <c r="AU13" s="61"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
       <c r="AV13" s="19"/>
       <c r="AW13" s="19"/>
       <c r="AX13" s="20"/>
@@ -2518,15 +2570,15 @@
       <c r="BD13" s="19"/>
       <c r="BE13" s="20"/>
       <c r="BF13" s="18"/>
-      <c r="BG13" s="61"/>
-      <c r="BH13" s="61"/>
-      <c r="BI13" s="61"/>
+      <c r="BG13" s="53"/>
+      <c r="BH13" s="53"/>
+      <c r="BI13" s="53"/>
       <c r="BJ13" s="19"/>
       <c r="BK13" s="19"/>
       <c r="BL13" s="20"/>
     </row>
-    <row r="14" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="51" t="s">
+    <row r="14" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="68" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2556,16 +2608,16 @@
       <c r="N14" s="7"/>
       <c r="O14" s="8"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="8"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="8"/>
@@ -2577,16 +2629,16 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="59"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="6"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="59"/>
-      <c r="AU14" s="59"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
       <c r="AV14" s="7"/>
       <c r="AW14" s="7"/>
       <c r="AX14" s="8"/>
@@ -2598,15 +2650,15 @@
       <c r="BD14" s="7"/>
       <c r="BE14" s="8"/>
       <c r="BF14" s="6"/>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="59"/>
-      <c r="BI14" s="59"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51"/>
       <c r="BJ14" s="7"/>
       <c r="BK14" s="7"/>
       <c r="BL14" s="8"/>
     </row>
-    <row r="15" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="52"/>
+    <row r="15" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69"/>
       <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
@@ -2634,16 +2686,16 @@
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="14"/>
       <c r="W15" s="12"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="14"/>
@@ -2655,16 +2707,16 @@
       <c r="AI15" s="13"/>
       <c r="AJ15" s="14"/>
       <c r="AK15" s="12"/>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="52"/>
       <c r="AO15" s="13"/>
       <c r="AP15" s="13"/>
       <c r="AQ15" s="14"/>
       <c r="AR15" s="12"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="60"/>
-      <c r="AU15" s="60"/>
+      <c r="AS15" s="52"/>
+      <c r="AT15" s="52"/>
+      <c r="AU15" s="52"/>
       <c r="AV15" s="13"/>
       <c r="AW15" s="13"/>
       <c r="AX15" s="14"/>
@@ -2676,15 +2728,15 @@
       <c r="BD15" s="13"/>
       <c r="BE15" s="14"/>
       <c r="BF15" s="12"/>
-      <c r="BG15" s="60"/>
-      <c r="BH15" s="60"/>
-      <c r="BI15" s="60"/>
+      <c r="BG15" s="52"/>
+      <c r="BH15" s="52"/>
+      <c r="BI15" s="52"/>
       <c r="BJ15" s="13"/>
       <c r="BK15" s="13"/>
       <c r="BL15" s="14"/>
     </row>
-    <row r="16" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="53"/>
+    <row r="16" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="70"/>
       <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
@@ -2712,16 +2764,16 @@
       <c r="N16" s="19"/>
       <c r="O16" s="20"/>
       <c r="P16" s="18"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
       <c r="V16" s="20"/>
       <c r="W16" s="18"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="20"/>
@@ -2733,16 +2785,16 @@
       <c r="AI16" s="19"/>
       <c r="AJ16" s="20"/>
       <c r="AK16" s="18"/>
-      <c r="AL16" s="61"/>
-      <c r="AM16" s="61"/>
-      <c r="AN16" s="61"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
       <c r="AO16" s="19"/>
       <c r="AP16" s="19"/>
       <c r="AQ16" s="20"/>
       <c r="AR16" s="18"/>
-      <c r="AS16" s="61"/>
-      <c r="AT16" s="61"/>
-      <c r="AU16" s="61"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53"/>
+      <c r="AU16" s="53"/>
       <c r="AV16" s="19"/>
       <c r="AW16" s="19"/>
       <c r="AX16" s="20"/>
@@ -2754,15 +2806,15 @@
       <c r="BD16" s="19"/>
       <c r="BE16" s="20"/>
       <c r="BF16" s="18"/>
-      <c r="BG16" s="61"/>
-      <c r="BH16" s="61"/>
-      <c r="BI16" s="61"/>
+      <c r="BG16" s="53"/>
+      <c r="BH16" s="53"/>
+      <c r="BI16" s="53"/>
       <c r="BJ16" s="19"/>
       <c r="BK16" s="19"/>
       <c r="BL16" s="20"/>
     </row>
-    <row r="17" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="51" t="s">
+    <row r="17" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="68" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2794,16 +2846,16 @@
       <c r="N17" s="27"/>
       <c r="O17" s="28"/>
       <c r="P17" s="26"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
       <c r="W17" s="26"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
       <c r="AA17" s="27"/>
       <c r="AB17" s="27"/>
       <c r="AC17" s="28"/>
@@ -2815,16 +2867,16 @@
       <c r="AI17" s="27"/>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="26"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="63"/>
+      <c r="AL17" s="55"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="55"/>
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="28"/>
       <c r="AR17" s="26"/>
-      <c r="AS17" s="63"/>
-      <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="55"/>
+      <c r="AU17" s="55"/>
       <c r="AV17" s="27"/>
       <c r="AW17" s="27"/>
       <c r="AX17" s="28"/>
@@ -2836,15 +2888,15 @@
       <c r="BD17" s="27"/>
       <c r="BE17" s="28"/>
       <c r="BF17" s="26"/>
-      <c r="BG17" s="63"/>
-      <c r="BH17" s="63"/>
-      <c r="BI17" s="63"/>
+      <c r="BG17" s="55"/>
+      <c r="BH17" s="55"/>
+      <c r="BI17" s="55"/>
       <c r="BJ17" s="27"/>
       <c r="BK17" s="27"/>
       <c r="BL17" s="28"/>
     </row>
-    <row r="18" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="52"/>
+    <row r="18" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="69"/>
       <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
@@ -2874,16 +2926,16 @@
       <c r="N18" s="30"/>
       <c r="O18" s="31"/>
       <c r="P18" s="29"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
       <c r="V18" s="31"/>
       <c r="W18" s="29"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
       <c r="AA18" s="30"/>
       <c r="AB18" s="30"/>
       <c r="AC18" s="31"/>
@@ -2895,16 +2947,16 @@
       <c r="AI18" s="30"/>
       <c r="AJ18" s="31"/>
       <c r="AK18" s="29"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="64"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
       <c r="AO18" s="30"/>
       <c r="AP18" s="30"/>
       <c r="AQ18" s="31"/>
       <c r="AR18" s="29"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="64"/>
-      <c r="AU18" s="64"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
       <c r="AV18" s="30"/>
       <c r="AW18" s="30"/>
       <c r="AX18" s="31"/>
@@ -2916,15 +2968,15 @@
       <c r="BD18" s="30"/>
       <c r="BE18" s="31"/>
       <c r="BF18" s="29"/>
-      <c r="BG18" s="64"/>
-      <c r="BH18" s="64"/>
-      <c r="BI18" s="64"/>
+      <c r="BG18" s="56"/>
+      <c r="BH18" s="56"/>
+      <c r="BI18" s="56"/>
       <c r="BJ18" s="30"/>
       <c r="BK18" s="30"/>
       <c r="BL18" s="31"/>
     </row>
-    <row r="19" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="53"/>
+    <row r="19" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="70"/>
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
@@ -2954,16 +3006,16 @@
       <c r="N19" s="33"/>
       <c r="O19" s="34"/>
       <c r="P19" s="32"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
       <c r="V19" s="34"/>
       <c r="W19" s="32"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
       <c r="AA19" s="33"/>
       <c r="AB19" s="33"/>
       <c r="AC19" s="34"/>
@@ -2975,16 +3027,16 @@
       <c r="AI19" s="33"/>
       <c r="AJ19" s="34"/>
       <c r="AK19" s="32"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="57"/>
       <c r="AO19" s="33"/>
       <c r="AP19" s="33"/>
       <c r="AQ19" s="34"/>
       <c r="AR19" s="32"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="57"/>
       <c r="AV19" s="33"/>
       <c r="AW19" s="33"/>
       <c r="AX19" s="34"/>
@@ -2996,15 +3048,15 @@
       <c r="BD19" s="33"/>
       <c r="BE19" s="34"/>
       <c r="BF19" s="32"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
+      <c r="BG19" s="57"/>
+      <c r="BH19" s="57"/>
+      <c r="BI19" s="57"/>
       <c r="BJ19" s="33"/>
       <c r="BK19" s="33"/>
       <c r="BL19" s="34"/>
     </row>
-    <row r="20" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="51" t="s">
+    <row r="20" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="68" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3036,16 +3088,16 @@
       <c r="N20" s="23"/>
       <c r="O20" s="24"/>
       <c r="P20" s="22"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="24"/>
       <c r="W20" s="22"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
       <c r="AA20" s="23"/>
       <c r="AB20" s="23"/>
       <c r="AC20" s="24"/>
@@ -3057,16 +3109,16 @@
       <c r="AI20" s="23"/>
       <c r="AJ20" s="24"/>
       <c r="AK20" s="22"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
       <c r="AO20" s="23"/>
       <c r="AP20" s="23"/>
       <c r="AQ20" s="24"/>
       <c r="AR20" s="22"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
+      <c r="AS20" s="54"/>
+      <c r="AT20" s="54"/>
+      <c r="AU20" s="54"/>
       <c r="AV20" s="23"/>
       <c r="AW20" s="23"/>
       <c r="AX20" s="24"/>
@@ -3078,15 +3130,15 @@
       <c r="BD20" s="23"/>
       <c r="BE20" s="24"/>
       <c r="BF20" s="22"/>
-      <c r="BG20" s="62"/>
-      <c r="BH20" s="62"/>
-      <c r="BI20" s="62"/>
+      <c r="BG20" s="54"/>
+      <c r="BH20" s="54"/>
+      <c r="BI20" s="54"/>
       <c r="BJ20" s="23"/>
       <c r="BK20" s="23"/>
       <c r="BL20" s="24"/>
     </row>
-    <row r="21" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="52"/>
+    <row r="21" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="69"/>
       <c r="B21" s="9" t="s">
         <v>9</v>
       </c>
@@ -3116,16 +3168,16 @@
       <c r="N21" s="13"/>
       <c r="O21" s="14"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="14"/>
       <c r="W21" s="12"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
       <c r="AC21" s="14"/>
@@ -3137,16 +3189,16 @@
       <c r="AI21" s="13"/>
       <c r="AJ21" s="14"/>
       <c r="AK21" s="12"/>
-      <c r="AL21" s="60"/>
-      <c r="AM21" s="60"/>
-      <c r="AN21" s="60"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
       <c r="AO21" s="13"/>
       <c r="AP21" s="13"/>
       <c r="AQ21" s="14"/>
       <c r="AR21" s="12"/>
-      <c r="AS21" s="60"/>
-      <c r="AT21" s="60"/>
-      <c r="AU21" s="60"/>
+      <c r="AS21" s="52"/>
+      <c r="AT21" s="52"/>
+      <c r="AU21" s="52"/>
       <c r="AV21" s="13"/>
       <c r="AW21" s="13"/>
       <c r="AX21" s="14"/>
@@ -3158,15 +3210,15 @@
       <c r="BD21" s="13"/>
       <c r="BE21" s="14"/>
       <c r="BF21" s="12"/>
-      <c r="BG21" s="60"/>
-      <c r="BH21" s="60"/>
-      <c r="BI21" s="60"/>
+      <c r="BG21" s="52"/>
+      <c r="BH21" s="52"/>
+      <c r="BI21" s="52"/>
       <c r="BJ21" s="13"/>
       <c r="BK21" s="13"/>
       <c r="BL21" s="14"/>
     </row>
-    <row r="22" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="53"/>
+    <row r="22" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="70"/>
       <c r="B22" s="15" t="s">
         <v>30</v>
       </c>
@@ -3196,16 +3248,16 @@
       <c r="N22" s="19"/>
       <c r="O22" s="20"/>
       <c r="P22" s="18"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="20"/>
       <c r="W22" s="18"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
       <c r="AC22" s="20"/>
@@ -3217,16 +3269,16 @@
       <c r="AI22" s="19"/>
       <c r="AJ22" s="20"/>
       <c r="AK22" s="18"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="61"/>
-      <c r="AN22" s="61"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
       <c r="AQ22" s="20"/>
       <c r="AR22" s="18"/>
-      <c r="AS22" s="61"/>
-      <c r="AT22" s="61"/>
-      <c r="AU22" s="61"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="53"/>
       <c r="AV22" s="19"/>
       <c r="AW22" s="19"/>
       <c r="AX22" s="20"/>
@@ -3238,15 +3290,15 @@
       <c r="BD22" s="19"/>
       <c r="BE22" s="20"/>
       <c r="BF22" s="18"/>
-      <c r="BG22" s="61"/>
-      <c r="BH22" s="61"/>
-      <c r="BI22" s="61"/>
+      <c r="BG22" s="53"/>
+      <c r="BH22" s="53"/>
+      <c r="BI22" s="53"/>
       <c r="BJ22" s="19"/>
       <c r="BK22" s="19"/>
       <c r="BL22" s="20"/>
     </row>
-    <row r="23" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="51" t="s">
+    <row r="23" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="68" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3278,16 +3330,16 @@
       <c r="N23" s="7"/>
       <c r="O23" s="8"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="8"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="8"/>
@@ -3299,16 +3351,16 @@
       <c r="AI23" s="7"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="6"/>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="59"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
       <c r="AQ23" s="8"/>
       <c r="AR23" s="6"/>
-      <c r="AS23" s="59"/>
-      <c r="AT23" s="59"/>
-      <c r="AU23" s="59"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="51"/>
       <c r="AV23" s="7"/>
       <c r="AW23" s="7"/>
       <c r="AX23" s="8"/>
@@ -3320,15 +3372,15 @@
       <c r="BD23" s="7"/>
       <c r="BE23" s="8"/>
       <c r="BF23" s="6"/>
-      <c r="BG23" s="59"/>
-      <c r="BH23" s="59"/>
-      <c r="BI23" s="59"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
+      <c r="BI23" s="51"/>
       <c r="BJ23" s="7"/>
       <c r="BK23" s="7"/>
       <c r="BL23" s="8"/>
     </row>
-    <row r="24" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="52"/>
+    <row r="24" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="69"/>
       <c r="B24" s="9" t="s">
         <v>32</v>
       </c>
@@ -3358,16 +3410,16 @@
       <c r="N24" s="13"/>
       <c r="O24" s="14"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="14"/>
       <c r="W24" s="12"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="14"/>
@@ -3379,16 +3431,16 @@
       <c r="AI24" s="13"/>
       <c r="AJ24" s="14"/>
       <c r="AK24" s="12"/>
-      <c r="AL24" s="60"/>
-      <c r="AM24" s="60"/>
-      <c r="AN24" s="60"/>
+      <c r="AL24" s="52"/>
+      <c r="AM24" s="52"/>
+      <c r="AN24" s="52"/>
       <c r="AO24" s="13"/>
       <c r="AP24" s="13"/>
       <c r="AQ24" s="14"/>
       <c r="AR24" s="12"/>
-      <c r="AS24" s="60"/>
-      <c r="AT24" s="60"/>
-      <c r="AU24" s="60"/>
+      <c r="AS24" s="52"/>
+      <c r="AT24" s="52"/>
+      <c r="AU24" s="52"/>
       <c r="AV24" s="13"/>
       <c r="AW24" s="13"/>
       <c r="AX24" s="14"/>
@@ -3400,15 +3452,15 @@
       <c r="BD24" s="13"/>
       <c r="BE24" s="14"/>
       <c r="BF24" s="12"/>
-      <c r="BG24" s="60"/>
-      <c r="BH24" s="60"/>
-      <c r="BI24" s="60"/>
+      <c r="BG24" s="52"/>
+      <c r="BH24" s="52"/>
+      <c r="BI24" s="52"/>
       <c r="BJ24" s="13"/>
       <c r="BK24" s="13"/>
       <c r="BL24" s="14"/>
     </row>
-    <row r="25" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="53"/>
+    <row r="25" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="70"/>
       <c r="B25" s="15"/>
       <c r="C25" s="47">
         <v>45834</v>
@@ -3436,16 +3488,16 @@
       <c r="N25" s="19"/>
       <c r="O25" s="20"/>
       <c r="P25" s="18"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="20"/>
       <c r="W25" s="18"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
       <c r="AA25" s="19"/>
       <c r="AB25" s="19"/>
       <c r="AC25" s="20"/>
@@ -3457,16 +3509,16 @@
       <c r="AI25" s="19"/>
       <c r="AJ25" s="20"/>
       <c r="AK25" s="18"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="61"/>
-      <c r="AN25" s="61"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
       <c r="AQ25" s="20"/>
       <c r="AR25" s="18"/>
-      <c r="AS25" s="61"/>
-      <c r="AT25" s="61"/>
-      <c r="AU25" s="61"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
       <c r="AV25" s="19"/>
       <c r="AW25" s="19"/>
       <c r="AX25" s="20"/>
@@ -3478,14 +3530,14 @@
       <c r="BD25" s="19"/>
       <c r="BE25" s="20"/>
       <c r="BF25" s="18"/>
-      <c r="BG25" s="61"/>
-      <c r="BH25" s="61"/>
-      <c r="BI25" s="61"/>
+      <c r="BG25" s="53"/>
+      <c r="BH25" s="53"/>
+      <c r="BI25" s="53"/>
       <c r="BJ25" s="19"/>
       <c r="BK25" s="19"/>
       <c r="BL25" s="20"/>
     </row>
-    <row r="26" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BN26" s="36">
         <v>45658</v>
       </c>
@@ -3493,7 +3545,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="27" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="BN27" s="37">
@@ -3505,12 +3557,22 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="28" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:67" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="AD3:AJ3"/>
     <mergeCell ref="AK3:AQ3"/>
     <mergeCell ref="AR3:AX3"/>
@@ -3520,16 +3582,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:O3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="P3:V3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="BF3:BL3"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
